--- a/MavenGit/src/main/java/File/TestCase.xlsx
+++ b/MavenGit/src/main/java/File/TestCase.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>isbn</t>
   </si>
@@ -39,10 +39,25 @@
     <t>abhishek</t>
   </si>
   <si>
-    <t>ab8465</t>
-  </si>
-  <si>
-    <t>abhi</t>
+    <t>anu</t>
+  </si>
+  <si>
+    <t>abhi1</t>
+  </si>
+  <si>
+    <t>anu1</t>
+  </si>
+  <si>
+    <t>anuj</t>
+  </si>
+  <si>
+    <t>anuj1</t>
+  </si>
+  <si>
+    <t>kamesh</t>
+  </si>
+  <si>
+    <t>kamesh2</t>
   </si>
 </sst>
 </file>
@@ -389,10 +404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -429,13 +444,64 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>123456</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <v>6</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>7</v>
+      </c>
+      <c r="D4">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/MavenGit/src/main/java/File/TestCase.xlsx
+++ b/MavenGit/src/main/java/File/TestCase.xlsx
@@ -407,7 +407,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -444,10 +444,10 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -461,10 +461,10 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
@@ -478,10 +478,10 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D4">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
@@ -495,10 +495,10 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>

--- a/MavenGit/src/main/java/File/TestCase.xlsx
+++ b/MavenGit/src/main/java/File/TestCase.xlsx
@@ -407,7 +407,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -444,10 +444,10 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -461,10 +461,10 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
@@ -478,10 +478,10 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
@@ -495,10 +495,10 @@
         <v>12</v>
       </c>
       <c r="C5">
+        <v>12</v>
+      </c>
+      <c r="D5">
         <v>2</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
